--- a/data/ME.xlsx
+++ b/data/ME.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -388,12 +403,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mechanical Engineering student; first quarter of freshman year. Concurrent: ME 163.</t>
+          <t>Mechanical Engineering student; first quarter of freshman year.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ME 163.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -410,12 +440,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ME 128; Mechanical Engineering student; second quarter of freshman year. Concurrent: IME 145.</t>
+          <t>ME 128; Mechanical Engineering student; second quarter of freshman year.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IME 145.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -432,12 +477,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ME 129; Mechanical Engineering student; third quarter of freshman year. Corequisite: IME 146.</t>
+          <t>ME 129; Mechanical Engineering student; third quarter of freshman year.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>IME 146.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -481,7 +556,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FConcurrent: ME 128.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ME 128.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MATH 241 (or concurrently), PHYS 131 or PHYS 141.</t>
+          <t>MATH 241 (or concurrently), PHYS 131 or PHYS 141.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MATH 241; ME 211 or ARCE 211.</t>
+          <t>MATH 241; ME 211 or ARCE 211.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -608,12 +773,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Engineering majors. Recommended: CHEM 125, ENGL 149, and PHYS 132.</t>
+          <t>Engineering majors.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CHEM 125, ENGL 149, and PHYS 132.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -630,12 +810,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ME 130 or ME 228. Recommended: IME 143.</t>
+          <t>ME 130 or ME 228.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>IME 143.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ME 212 and PHYS 132.</t>
+          <t>ME 212 and PHYS 132.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ME 302.</t>
+          <t>ME 302.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EE 201 and EE 251.</t>
+          <t>EE 201 and EE 251.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -806,12 +1106,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ME 212, MATH 344. Recommended: EE 201.</t>
+          <t>ME 212, MATH 344.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EE 201.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -855,7 +1185,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F, W, SPPrerequisites: CSC 231 or CSC 234; EE 201; EE 251; ME 318; ME 341.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>F, W, CSC 231 or CSC 234; EE 201; EE 251; ME 318; ME 341.</t>
         </is>
       </c>
     </row>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -894,12 +1254,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ME 212; CSC 231 or CSC 234. Corequisite: MATH 244.</t>
+          <t>ME 212; CSC 231 or CSC 234.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>MATH 244.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -916,12 +1291,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BMED 212 or ME 234; CE 207; CSC 231 or CSC 234; MATE 210; ME 212; and ME 251. Corequisite: IME 141 or ITP 341.</t>
+          <t>BMED 212 or ME 234; CE 207; CSC 231 or CSC 234; MATE 210; ME 212; and ME 251.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>IME 141 or ITP 341.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ME 328.</t>
+          <t>ME 328.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MATH 242 or MATH 244; ME 212.</t>
+          <t>MATH 242 or MATH 244; ME 212.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ME 236, ME 341, ME 302.</t>
+          <t>ME 236, ME 341, ME 302.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CPE/CSC 101 or CSC 231 or CSC 234; MATE 360 and MATE 380, or ME 236 and ME 302 and ME 341.</t>
+          <t>CPE/CSC 101 or CSC 231 or CSC 234; MATE 360 and MATE 380, or ME 236 and ME 302 and ME 341.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1031,7 +1481,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WCorequisite: ME 302.</t>
+          <t>ME 302.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CE 207, MATH 344, ME 328 or consent of instructor.</t>
+          <t>CE 207, MATH 344, ME 328 or consent of instructor.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ME 328.</t>
+          <t>ME 328.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BMED 410, and CE 207 or CE 208; or CE 406; or ME 328.</t>
+          <t>BMED 410, and CE 207 or CE 208; or CE 406; or ME 328.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EE 321, EE 361, ME 305, and ME 329 (ME329 may be taken concurrently); CPE 316 or CPE/EE 329 or CPE/EE 336.</t>
+          <t>EE 321, EE 361, ME 305, and ME 329 (ME329 may be taken concurrently); CPE 316 or CPE/EE 329 or CPE/EE 336.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>KINE 403; or ME 326.</t>
+          <t>KINE 403; or ME 326.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1180,12 +1735,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ME 328. Recommended: ME 318.</t>
+          <t>ME 328.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ME 318.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AERO 331 or ME 328.</t>
+          <t>AERO 331 or ME 328.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ME 302.</t>
+          <t>ME 302.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ME 318, ME 328.</t>
+          <t>ME 318, ME 328.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ME 322.</t>
+          <t>ME 322.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ME 322, ME 236.</t>
+          <t>ME 322, ME 236.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ME 303; ME 347; and ME 350.</t>
+          <t>ME 303; ME 347; and ME 350.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ME 318.</t>
+          <t>ME 318.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ME 326, ME 422.</t>
+          <t>ME 326, ME 422.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1378,12 +2068,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ME 329. Corequisite: ME 318 and ME 350.</t>
+          <t>ME 329.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>ME 318 and ME 350.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ME 428.</t>
+          <t>ME 428.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ME 429.</t>
+          <t>ME 429.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ME 329.</t>
+          <t>ME 329.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ME 302, ME 347, and ME 350.</t>
+          <t>ME 302, ME 347, and ME 350.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ME 329, ME 347.</t>
+          <t>ME 329, ME 347.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ME 329, ME 347.</t>
+          <t>ME 329, ME 347.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Junior or senior standing in the College of Engineering, ME 302, and PHYS 133.</t>
+          <t>Junior or senior standing in the College of Engineering, ME 302, and PHYS 133.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1554,10 +2364,25 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ME 302 and ME 341.</t>
+          <t>ME 302 and ME 341.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1576,10 +2401,25 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ME 437 or ME 438.</t>
+          <t>ME 437 or ME 438.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1598,10 +2438,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ME 318, ME 329, or consent of instructor.</t>
+          <t>ME 318, ME 329, or consent of instructor.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ME 212.</t>
+          <t>ME 212.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MATH 344, ME 303, ME 347, and ME 350.</t>
+          <t>MATH 344, ME 303, ME 347, and ME 350.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1664,10 +2549,25 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ME 303, ME 347, and ME 350.</t>
+          <t>ME 303, ME 347, and ME 350.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1686,12 +2586,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ME 350. Recommended: ME 415.</t>
+          <t>ME 350.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ME 415.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1708,10 +2623,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ME 302 or ENVE 304.</t>
+          <t>ME 302 or ENVE 304.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1730,12 +2660,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ME 350. Recommended: ME 359.</t>
+          <t>ME 350.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ME 359.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1752,12 +2697,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ME 350. Recommended: ME 359.</t>
+          <t>ME 350.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ME 359.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1774,10 +2734,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ME 302, ME 347.</t>
+          <t>ME 302, ME 347.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ME 341 and ME 350.</t>
+          <t>ME 341 and ME 350.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1818,10 +2808,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ME 303 and ME 350.</t>
+          <t>ME 303 and ME 350.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ME 456, ME 458.</t>
+          <t>ME 456, ME 458.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1862,10 +2882,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ME 459.</t>
+          <t>ME 459.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1889,6 +2924,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1911,6 +2961,21 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1928,10 +2993,25 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ME 329, ME 347, ME 302.</t>
+          <t>ME 329, ME 347, ME 302.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1955,6 +3035,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1977,6 +3072,21 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1999,6 +3109,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2021,6 +3146,21 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2043,6 +3183,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2060,10 +3215,25 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ME 501 or CE 511.</t>
+          <t>ME 501 or CE 511.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2082,10 +3252,25 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CE/ME 404 and CE 511/ME 501 or consent of instructor.</t>
+          <t>CE/ME 404 and CE 511/ME 501 or consent of instructor.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2109,6 +3294,21 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2131,6 +3331,21 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2148,10 +3363,25 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ME 318, graduate standing or consent of instructor.</t>
+          <t>ME 318, graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2170,10 +3400,25 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ME 318, graduate standing or consent of instructor.</t>
+          <t>ME 318, graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2192,10 +3437,25 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ME 347, MATH 344 and graduate standing or consent of instructor.</t>
+          <t>ME 347, MATH 344 and graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2214,10 +3474,25 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ME 303, ME 347, ME 350, and graduate standing.</t>
+          <t>ME 303, ME 347, ME 350, and graduate standing.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2236,10 +3511,25 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MATH 244, ME 303, ME 347, ME 350, and graduate standing.</t>
+          <t>MATH 244, ME 303, ME 347, ME 350, and graduate standing.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2258,10 +3548,25 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MATH 344, ME 347, ME 350, and graduate standing.</t>
+          <t>MATH 344, ME 347, ME 350, and graduate standing.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2280,10 +3585,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MATH 344, ME 347, ME 350, and graduate standing.</t>
+          <t>MATH 344, ME 347, ME 350, and graduate standing.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2302,10 +3622,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MATH 418, ME 347, ME 350, and graduate standing.</t>
+          <t>MATH 418, ME 347, ME 350, and graduate standing.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2324,10 +3659,25 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ME 347 or FPE 502; and ME 350.</t>
+          <t>ME 347 or FPE 502; and ME 350.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2351,6 +3701,21 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -2373,6 +3738,21 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2395,6 +3775,21 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2412,10 +3807,25 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ME 422.</t>
+          <t>ME 422.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2438,6 +3848,21 @@
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
